--- a/medicine/Sexualité et sexologie/Jennie_Lee_(danseuse)/Jennie_Lee_(danseuse).xlsx
+++ b/medicine/Sexualité et sexologie/Jennie_Lee_(danseuse)/Jennie_Lee_(danseuse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jennie Lee, née Virginia Lee Hicks le 23 mars 1928 à Kansas City et morte le 24 mars 1990 à Helendale, en Californie, est une danseuse exotique américaine spécialisée dans le striptease et une légende du burlesque américain[1], une pin-up et une actrice de cinéma de rôle mineur, qui pratiquait le striptease dans des boîtes de nuit, au cours des années 1950 et 1960. Elle était également connue sous les noms de The Bazoom Girl, The Burlesque Version of Jayne Mansfield et Miss 44 and Plenty More[2],[3]. Au fil des années, elle collectionne des articles relatifs au burlesque, qui plus tard seront à la base de la collection du Burlesque Hall of Fame[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennie Lee, née Virginia Lee Hicks le 23 mars 1928 à Kansas City et morte le 24 mars 1990 à Helendale, en Californie, est une danseuse exotique américaine spécialisée dans le striptease et une légende du burlesque américain, une pin-up et une actrice de cinéma de rôle mineur, qui pratiquait le striptease dans des boîtes de nuit, au cours des années 1950 et 1960. Elle était également connue sous les noms de The Bazoom Girl, The Burlesque Version of Jayne Mansfield et Miss 44 and Plenty More,. Au fil des années, elle collectionne des articles relatifs au burlesque, qui plus tard seront à la base de la collection du Burlesque Hall of Fame.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jennie Lee apparaît dans les films suivants[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jennie Lee apparaît dans les films suivants :
 1958 : Abandon
 1959 : The French Follies
 1959 : TDing, Dong... A Night at the Follies
